--- a/Assets/RawData/Excel/PlayerBaseLevel.xlsx
+++ b/Assets/RawData/Excel/PlayerBaseLevel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="MagicianLevel" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t xml:space="preserve">_level</t>
   </si>
@@ -29,25 +29,31 @@
     <t xml:space="preserve">_exp</t>
   </si>
   <si>
+    <t xml:space="preserve">_maxHp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_maxMp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_adef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_mdef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_str</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_int</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_luk</t>
+  </si>
+  <si>
     <t xml:space="preserve">_hp</t>
   </si>
   <si>
     <t xml:space="preserve">_mp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_adef</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_mdef</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_str</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_int</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_luk</t>
   </si>
 </sst>
 </file>
@@ -149,8 +155,8 @@
   </sheetPr>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -192,28 +198,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -221,13 +227,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>5</v>
@@ -236,13 +242,13 @@
         <v>10</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -250,28 +256,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -279,13 +285,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>10</v>
@@ -294,13 +300,13 @@
         <v>20</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -308,28 +314,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -337,13 +343,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>240</v>
+        <v>190</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>15</v>
@@ -352,13 +358,13 @@
         <v>30</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -366,28 +372,28 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>1150</v>
+        <v>900</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -395,13 +401,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>1400</v>
+        <v>1150</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>320</v>
+        <v>260</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>20</v>
@@ -410,13 +416,13 @@
         <v>40</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -424,28 +430,28 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>195</v>
+        <v>160</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>390</v>
+        <v>320</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -453,13 +459,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>460</v>
+        <v>390</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>25</v>
@@ -468,13 +474,13 @@
         <v>50</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -495,8 +501,8 @@
   </sheetPr>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -512,10 +518,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>4</v>
@@ -538,28 +544,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -567,13 +573,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>10</v>
@@ -582,13 +588,13 @@
         <v>5</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -596,28 +602,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -625,13 +631,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>20</v>
@@ -640,13 +646,13 @@
         <v>10</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -654,28 +660,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -683,13 +689,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>240</v>
+        <v>190</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>30</v>
@@ -698,13 +704,13 @@
         <v>15</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -712,28 +718,28 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>1150</v>
+        <v>900</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -741,13 +747,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>1400</v>
+        <v>1150</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>320</v>
+        <v>260</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>40</v>
@@ -756,13 +762,13 @@
         <v>20</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -770,28 +776,28 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>390</v>
+        <v>320</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>195</v>
+        <v>160</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -799,13 +805,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>460</v>
+        <v>390</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>50</v>
@@ -814,19 +820,19 @@
         <v>25</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,보통"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,보통"&amp;12페이지 &amp;P</oddFooter>

--- a/Assets/RawData/Excel/PlayerBaseLevel.xlsx
+++ b/Assets/RawData/Excel/PlayerBaseLevel.xlsx
@@ -153,10 +153,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -481,6 +481,35 @@
       </c>
       <c r="I11" s="0" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>600000</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>9999</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>9999</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>9999</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>9999</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>9999</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>9999</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>9999</v>
       </c>
     </row>
   </sheetData>
